--- a/MySQL Table Generator/TableDesign_PPS.xlsx
+++ b/MySQL Table Generator/TableDesign_PPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Islam\World\01_STZ\DataLine\Github\Internal\MySQL Table Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F7A048-0B53-42AA-B00C-950A24B41A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAB427F-578B-46D1-9106-086A23320533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{182BECEF-A2D9-4B2C-A341-9F1C7EE47CD6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{182BECEF-A2D9-4B2C-A341-9F1C7EE47CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="temp" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
   <si>
     <t>screencolumn</t>
   </si>
@@ -103,9 +103,6 @@
     <t>200</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Supplier Name</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>Sample Data</t>
   </si>
   <si>
-    <t>Batch No</t>
-  </si>
-  <si>
     <t>300</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>ItemCode</t>
   </si>
   <si>
-    <t>SupplierCode</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
@@ -236,13 +227,28 @@
   </si>
   <si>
     <t>Regular</t>
+  </si>
+  <si>
+    <t>Lot No</t>
+  </si>
+  <si>
+    <t>Item Code</t>
+  </si>
+  <si>
+    <t>Supplier Code</t>
+  </si>
+  <si>
+    <t>Outward Date</t>
+  </si>
+  <si>
+    <t>Purchase Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,48 +269,16 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -312,75 +286,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F5F38AF0-E947-4BB1-802E-12647BE95CDB}"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -441,6 +361,18 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -468,8 +400,8 @@
     <tableColumn id="8" xr3:uid="{ED3B61D3-0D37-43E5-8929-E657B5A25C86}" name="Sample Data"/>
     <tableColumn id="3" xr3:uid="{3F056AA6-3E60-4555-801D-C359F0322E46}" name="datatype"/>
     <tableColumn id="5" xr3:uid="{A1A8C033-8E0B-49DF-A7E6-3025AE5928F1}" name="mysqldatatype"/>
-    <tableColumn id="6" xr3:uid="{3AD547F6-F287-4E33-AE97-B5D663E9E569}" name="mysqllength" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{793222F7-3E3D-4570-BC0B-6BEDF332A161}" name="nullability" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{3AD547F6-F287-4E33-AE97-B5D663E9E569}" name="mysqllength" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{793222F7-3E3D-4570-BC0B-6BEDF332A161}" name="nullability" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -489,8 +421,8 @@
     <tableColumn id="8" xr3:uid="{1B3CF330-1FDF-4AC2-BAC1-4794FDCAD9FA}" name="Sample Data"/>
     <tableColumn id="3" xr3:uid="{DF44BAFF-54B5-449C-A59A-71A9B1E83D58}" name="datatype"/>
     <tableColumn id="5" xr3:uid="{081B157B-3AE2-4EE9-9EA5-D529FA7ED783}" name="mysqldatatype"/>
-    <tableColumn id="6" xr3:uid="{B75211C5-07FC-4D66-8CC2-497871DB6617}" name="mysqllength" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{A77F4DC1-AF7C-49D8-A7E2-C0568AFD759C}" name="nullability" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{B75211C5-07FC-4D66-8CC2-497871DB6617}" name="mysqllength" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{A77F4DC1-AF7C-49D8-A7E2-C0568AFD759C}" name="nullability" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -507,20 +439,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A4F40315-D3E7-4D12-A0DD-93715AE8E9DE}" name="Table3" displayName="Table3" ref="A1:A8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A4F40315-D3E7-4D12-A0DD-93715AE8E9DE}" name="Table3" displayName="Table3" ref="A1:A8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:A8" xr:uid="{A4F40315-D3E7-4D12-A0DD-93715AE8E9DE}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C4D02D59-765F-48BA-8F1B-472CDCCC210D}" name="MySQLDataType" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C4D02D59-765F-48BA-8F1B-472CDCCC210D}" name="MySQLDataType" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4B27544-B474-4537-ADCE-A2BA208E3AB7}" name="Table4" displayName="Table4" ref="C1:C3" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4B27544-B474-4537-ADCE-A2BA208E3AB7}" name="Table4" displayName="Table4" ref="C1:C3" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="C1:C3" xr:uid="{F4B27544-B474-4537-ADCE-A2BA208E3AB7}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{6AC71AB2-93CB-4382-B28C-2B91F194D22F}" name="Nullability" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{6AC71AB2-93CB-4382-B28C-2B91F194D22F}" name="Nullability" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -823,120 +755,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EEC93C-28AF-4CD6-8985-0A657C8ED7BC}">
-  <dimension ref="C2:D16"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="C3:D16"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="4" width="29" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="9">
-        <v>44961</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="11">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -946,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728CD64C-3754-4AAD-87DE-35352B8FD67D}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -973,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -990,15 +819,15 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f t="shared" ref="A2:A23" si="0">ROW(A1)</f>
+        <f t="shared" ref="A2" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C23" si="1">SUBSTITUTE(B2," ", "")</f>
-        <v>Date</v>
+        <f>SUBSTITUTE(B2," ", "")</f>
+        <v>PurchaseDate</v>
       </c>
       <c r="D2">
         <v>44961</v>
@@ -1021,33 +850,40 @@
         <f>ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>55</v>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C23" si="1">SUBSTITUTE(B3," ", "")</f>
+        <v>SupplierCode</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f>ROW(A2)</f>
-        <v>2</v>
+        <f t="shared" ref="A4:A23" si="2">ROW(A3)</f>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
         <v>SupplierName</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1056,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>20</v>
@@ -1064,11 +900,11 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
@@ -1092,18 +928,18 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
         <v>Invno</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1120,11 +956,11 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
@@ -1148,18 +984,18 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
         <v>Category</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -1176,33 +1012,40 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f>ROW(A8)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>54</v>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>ItemCode</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f>ROW(A8)</f>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
         <v>Item</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1211,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>20</v>
@@ -1219,18 +1062,18 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>BatchNo</v>
+        <v>LotNo</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -1247,18 +1090,18 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
         <v>ReceiveSite</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -1267,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>20</v>
@@ -1275,18 +1118,18 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
         <v>StorageLocation</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -1295,7 +1138,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>20</v>
@@ -1303,11 +1146,11 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
@@ -1331,11 +1174,11 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
@@ -1356,11 +1199,11 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
@@ -1384,11 +1227,11 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
@@ -1409,11 +1252,11 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
@@ -1437,11 +1280,11 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
@@ -1459,11 +1302,11 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
@@ -1481,11 +1324,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
@@ -1506,11 +1349,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
@@ -1531,11 +1374,11 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
@@ -1591,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D9D0D-8D24-4609-9277-29B15E020E7B}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1618,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1635,14 +1478,15 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f t="shared" ref="A2:A16" si="0">ROW(A1)</f>
+        <f t="shared" ref="A2" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
+        <v>69</v>
+      </c>
+      <c r="C2" t="str">
+        <f>SUBSTITUTE(B2," ", "")</f>
+        <v>OutwardDate</v>
       </c>
       <c r="D2">
         <v>44961</v>
@@ -1665,29 +1509,37 @@
         <f>ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>57</v>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C16" si="1">SUBSTITUTE(B3," ", "")</f>
+        <v>FromSite</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f>ROW(A2)</f>
-        <v>2</v>
+        <f t="shared" ref="A4:A16" si="2">ROW(A3)</f>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>FromSiteDC</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1704,17 +1556,18 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>TOSite</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -1731,14 +1584,15 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>TOSiteDC</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1755,17 +1609,18 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>Category</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -1782,32 +1637,40 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f>ROW(A7)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>54</v>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>ItemCode</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f>ROW(A7)</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>Item</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -1816,7 +1679,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>20</v>
@@ -1824,41 +1687,43 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f>ROW(A9)</f>
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>LotNo</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f>ROW(A9)</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="C11" t="str">
+        <f>SUBSTITUTE(B11," ", "")</f>
+        <v>Qty</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>20</v>
@@ -1866,17 +1731,18 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>ProdGrade</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -1890,26 +1756,24 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13">
-        <v>950</v>
+        <v>59</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>ProdName</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>20</v>
@@ -1917,17 +1781,18 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>Type</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -1944,14 +1809,15 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>ConverttoFG</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -1968,14 +1834,15 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>FGCode</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>

--- a/MySQL Table Generator/TableDesign_PPS.xlsx
+++ b/MySQL Table Generator/TableDesign_PPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Islam\World\01_STZ\DataLine\Github\Internal\MySQL Table Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAB427F-578B-46D1-9106-086A23320533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3515CFA-ECDE-468E-BD7F-ABA681307645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{182BECEF-A2D9-4B2C-A341-9F1C7EE47CD6}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="71">
   <si>
     <t>screencolumn</t>
   </si>
@@ -387,8 +387,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{713682FF-CC89-4322-BB64-1BB9454BECB4}" name="Table263" displayName="Table263" ref="A1:H23" totalsRowShown="0">
-  <autoFilter ref="A1:H23" xr:uid="{8AB8FB23-609C-4CD8-A0AC-E414C0C2AAF9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{713682FF-CC89-4322-BB64-1BB9454BECB4}" name="Table263" displayName="Table263" ref="A1:H24" totalsRowShown="0">
+  <autoFilter ref="A1:H24" xr:uid="{8AB8FB23-609C-4CD8-A0AC-E414C0C2AAF9}"/>
   <tableColumns count="8">
     <tableColumn id="4" xr3:uid="{8E3AF4F0-0EC1-4DA7-B5E4-2D9F45E8BBDC}" name="sno">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
@@ -773,10 +773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728CD64C-3754-4AAD-87DE-35352B8FD67D}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,7 +854,7 @@
         <v>68</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C23" si="1">SUBSTITUTE(B3," ", "")</f>
+        <f t="shared" ref="C3:C24" si="1">SUBSTITUTE(B3," ", "")</f>
         <v>SupplierCode</v>
       </c>
       <c r="D3" t="s">
@@ -872,7 +872,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A23" si="2">ROW(A3)</f>
+        <f t="shared" ref="A4:A24" si="2">ROW(A3)</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -984,21 +984,15 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f>ROW(A7)</f>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>Category</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+        <f>SUBSTITUTE(B8," ", "")</f>
+        <v>Type</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1012,15 +1006,21 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>ROW(A7)</f>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>ItemCode</v>
+        <v>Category</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1038,23 +1038,17 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>Item</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
+        <v>ItemCode</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>20</v>
@@ -1066,23 +1060,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>LotNo</v>
+        <v>Item</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>20</v>
@@ -1094,14 +1088,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>ReceiveSite</v>
+        <v>LotNo</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -1110,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>20</v>
@@ -1122,14 +1116,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>StorageLocation</v>
+        <v>ReceiveSite</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -1150,23 +1144,23 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>InvoiceQty</v>
-      </c>
-      <c r="D14">
-        <v>2145</v>
+        <v>StorageLocation</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2">
-        <v>200</v>
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>20</v>
@@ -1178,11 +1172,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>NoofBags</v>
+        <v>InvoiceQty</v>
+      </c>
+      <c r="D15">
+        <v>2145</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -1203,14 +1200,11 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v>Weightslipweight</v>
-      </c>
-      <c r="D16">
-        <v>2145</v>
+        <v>NoofBags</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -1231,20 +1225,23 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v>ManualWeight</v>
+        <v>Weightslipweight</v>
+      </c>
+      <c r="D17">
+        <v>2145</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>23</v>
+      <c r="G17" s="2">
+        <v>200</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>20</v>
@@ -1256,23 +1253,20 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v>Rateperkg</v>
-      </c>
-      <c r="D18">
-        <v>56</v>
+        <v>ManualWeight</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="2">
-        <v>200</v>
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>20</v>
@@ -1284,11 +1278,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v>GST18</v>
+        <v>Rateperkg</v>
+      </c>
+      <c r="D19">
+        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -1296,6 +1293,9 @@
       <c r="F19" t="s">
         <v>14</v>
       </c>
+      <c r="G19" s="2">
+        <v>200</v>
+      </c>
       <c r="H19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1306,11 +1306,11 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v>TotalValue</v>
+        <v>GST18</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -1328,20 +1328,17 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v>MFI</v>
+        <v>TotalValue</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>20</v>
@@ -1353,14 +1350,14 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v>Filler</v>
+        <v>MFI</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1378,11 +1375,11 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v>Impact</v>
+        <v>Filler</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1394,6 +1391,31 @@
         <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>Impact</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1410,19 +1432,19 @@
           <x14:formula1>
             <xm:f>DataType!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E23</xm:sqref>
+          <xm:sqref>E2:E24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6CC005BF-B5F8-4FAB-BC73-04F4BB5CC4F1}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F23</xm:sqref>
+          <xm:sqref>F2:F24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A042EAD5-C9C9-4ACF-84E1-39E73AF3D3A4}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H23</xm:sqref>
+          <xm:sqref>H2:H24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
